--- a/kaggle/NewYorkCityTaxiTripDuration/NewYorkCityTaxiTripDuration_score.xlsx
+++ b/kaggle/NewYorkCityTaxiTripDuration/NewYorkCityTaxiTripDuration_score.xlsx
@@ -5,17 +5,18 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okso6\Google 드라이브\temp\kaggle\NewYorkCityTaxiTripDuration\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\okso6\Desktop\workspace\kaggle\NewYorkCityTaxiTripDuration\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B83B1D-3822-49C3-ABA3-1CAB4C2988D1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2848AAEC-06A4-4126-A8E7-967BA3FBAB2E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2AD45D8C-22EA-4A04-9037-DE47605A112F}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{2AD45D8C-22EA-4A04-9037-DE47605A112F}"/>
   </bookViews>
   <sheets>
     <sheet name="Column" sheetId="1" r:id="rId1"/>
     <sheet name="desc" sheetId="2" r:id="rId2"/>
     <sheet name="Case" sheetId="3" r:id="rId3"/>
+    <sheet name="Summary" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="87">
   <si>
     <r>
       <t>id</t>
@@ -547,6 +548,10 @@
     <t>RandomForestRegressor 18</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
+  <si>
+    <t>…</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -556,7 +561,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -637,8 +642,17 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -663,8 +677,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -672,6 +692,84 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -681,7 +779,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="53">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -763,38 +861,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1553,11 +1696,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10A58FFB-AB10-422C-B97B-55AE3953FE58}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D73" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A4" sqref="A4:A7"/>
+      <selection pane="bottomRight" activeCell="A73" sqref="A73:A75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1585,21 +1728,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="E1" s="30" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="E1" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="30"/>
+      <c r="F1" s="37"/>
       <c r="G1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="30" t="s">
+      <c r="H1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
       <c r="M1" s="3" t="s">
         <v>9</v>
       </c>
@@ -1612,19 +1755,19 @@
       <c r="P1" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="R1" s="30" t="s">
+      <c r="R1" s="37" t="s">
         <v>59</v>
       </c>
-      <c r="S1" s="30"/>
+      <c r="S1" s="37"/>
     </row>
     <row r="2" spans="1:19" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B2" s="34" t="s">
+      <c r="B2" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="27" t="s">
         <v>35</v>
       </c>
       <c r="E2" s="18" t="s">
@@ -1633,10 +1776,10 @@
       <c r="F2" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="H2" s="30" t="s">
+      <c r="H2" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="I2" s="30"/>
+      <c r="I2" s="37"/>
       <c r="J2" s="3" t="s">
         <v>36</v>
       </c>
@@ -1654,8 +1797,8 @@
       </c>
     </row>
     <row r="3" spans="1:19" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="34"/>
-      <c r="C3" s="34">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27">
         <f>MIN(C4:C165)</f>
         <v>0.40622999999999998</v>
       </c>
@@ -1668,7 +1811,7 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="32" t="s">
         <v>33</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -1683,10 +1826,10 @@
       <c r="G4" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H4" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I4" s="31"/>
+      <c r="H4" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" s="32"/>
       <c r="J4" s="13" t="s">
         <v>38</v>
       </c>
@@ -1707,7 +1850,7 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="31"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
@@ -1720,10 +1863,10 @@
       <c r="G5" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="I5" s="31"/>
+      <c r="H5" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5" s="32"/>
       <c r="J5" s="13" t="s">
         <v>38</v>
       </c>
@@ -1744,7 +1887,7 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="31"/>
+      <c r="A6" s="32"/>
       <c r="B6" s="23" t="s">
         <v>44</v>
       </c>
@@ -1783,17 +1926,17 @@
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="23" t="s">
         <v>45</v>
       </c>
       <c r="C7" s="23">
         <v>0.68247999999999998</v>
       </c>
-      <c r="E7" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="31"/>
+      <c r="E7" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="32"/>
       <c r="G7" s="15" t="s">
         <v>38</v>
       </c>
@@ -1824,19 +1967,19 @@
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="32" t="s">
         <v>46</v>
       </c>
       <c r="B8" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C8" s="35">
+      <c r="C8" s="28">
         <v>0.68998999999999999</v>
       </c>
-      <c r="E8" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F8" s="31"/>
+      <c r="E8" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F8" s="32"/>
       <c r="G8" s="15" t="s">
         <v>38</v>
       </c>
@@ -1862,17 +2005,17 @@
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="31"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="35">
+      <c r="C9" s="28">
         <v>0.62926000000000004</v>
       </c>
-      <c r="E9" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="31"/>
+      <c r="E9" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="32"/>
       <c r="G9" s="15" t="s">
         <v>38</v>
       </c>
@@ -1898,17 +2041,17 @@
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="31"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="35">
+      <c r="C10" s="28">
         <v>0.58031999999999995</v>
       </c>
-      <c r="E10" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="31"/>
+      <c r="E10" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="32"/>
       <c r="G10" s="15" t="s">
         <v>38</v>
       </c>
@@ -1934,17 +2077,17 @@
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="31"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="23" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="35">
+      <c r="C11" s="28">
         <v>0.60394999999999999</v>
       </c>
-      <c r="E11" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="31"/>
+      <c r="E11" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="32"/>
       <c r="G11" s="15" t="s">
         <v>38</v>
       </c>
@@ -1970,7 +2113,7 @@
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="32" t="s">
         <v>60</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -1979,10 +2122,10 @@
       <c r="C12" s="23">
         <v>0.69045000000000001</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="31"/>
+      <c r="E12" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="32"/>
       <c r="G12" s="15" t="s">
         <v>38</v>
       </c>
@@ -2016,17 +2159,17 @@
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A13" s="31"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C13" s="23">
         <v>0.58277000000000001</v>
       </c>
-      <c r="E13" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F13" s="31"/>
+      <c r="E13" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="32"/>
       <c r="G13" s="15" t="s">
         <v>38</v>
       </c>
@@ -2060,17 +2203,17 @@
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A14" s="31"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C14" s="23">
         <v>0.57892999999999994</v>
       </c>
-      <c r="E14" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F14" s="31"/>
+      <c r="E14" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F14" s="32"/>
       <c r="G14" s="15" t="s">
         <v>38</v>
       </c>
@@ -2104,17 +2247,17 @@
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A15" s="31"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C15" s="23">
         <v>0.59411000000000003</v>
       </c>
-      <c r="E15" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F15" s="31"/>
+      <c r="E15" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="32"/>
       <c r="G15" s="15" t="s">
         <v>38</v>
       </c>
@@ -2148,7 +2291,7 @@
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="31" t="s">
         <v>51</v>
       </c>
       <c r="B16" s="23" t="s">
@@ -2157,10 +2300,10 @@
       <c r="C16" s="23">
         <v>0.64200999999999997</v>
       </c>
-      <c r="E16" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F16" s="31"/>
+      <c r="E16" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F16" s="32"/>
       <c r="G16" s="15" t="s">
         <v>38</v>
       </c>
@@ -2194,17 +2337,17 @@
       </c>
     </row>
     <row r="17" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A17" s="31"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="23">
         <v>0.40658</v>
       </c>
-      <c r="E17" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="31"/>
+      <c r="E17" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="32"/>
       <c r="G17" s="15" t="s">
         <v>38</v>
       </c>
@@ -2238,17 +2381,17 @@
       </c>
     </row>
     <row r="18" spans="1:23" s="23" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31"/>
+      <c r="A18" s="32"/>
       <c r="B18" s="23" t="s">
         <v>61</v>
       </c>
       <c r="C18" s="23">
         <v>0.42243000000000003</v>
       </c>
-      <c r="E18" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="31"/>
+      <c r="E18" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="32"/>
       <c r="G18" s="21" t="s">
         <v>38</v>
       </c>
@@ -2288,17 +2431,17 @@
       <c r="W18" s="24"/>
     </row>
     <row r="19" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A19" s="31"/>
+      <c r="A19" s="32"/>
       <c r="B19" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="23">
         <v>0.41293000000000002</v>
       </c>
-      <c r="E19" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F19" s="31"/>
+      <c r="E19" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F19" s="32"/>
       <c r="G19" s="15" t="s">
         <v>38</v>
       </c>
@@ -2332,17 +2475,17 @@
       </c>
     </row>
     <row r="20" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A20" s="31"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C20" s="23">
         <v>0.42873</v>
       </c>
-      <c r="E20" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="31"/>
+      <c r="E20" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F20" s="32"/>
       <c r="G20" s="15" t="s">
         <v>38</v>
       </c>
@@ -2376,7 +2519,7 @@
       </c>
     </row>
     <row r="21" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A21" s="32" t="s">
+      <c r="A21" s="35" t="s">
         <v>53</v>
       </c>
       <c r="B21" s="23" t="s">
@@ -2385,10 +2528,10 @@
       <c r="C21" s="23">
         <v>0.64200999999999997</v>
       </c>
-      <c r="E21" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="31"/>
+      <c r="E21" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="32"/>
       <c r="G21" s="16" t="s">
         <v>38</v>
       </c>
@@ -2422,17 +2565,17 @@
       </c>
     </row>
     <row r="22" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A22" s="33"/>
+      <c r="A22" s="36"/>
       <c r="B22" s="23" t="s">
         <v>47</v>
       </c>
       <c r="C22" s="23">
         <v>0.40649000000000002</v>
       </c>
-      <c r="E22" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F22" s="31"/>
+      <c r="E22" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F22" s="32"/>
       <c r="G22" s="16" t="s">
         <v>38</v>
       </c>
@@ -2466,17 +2609,17 @@
       </c>
     </row>
     <row r="23" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A23" s="33"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="23" t="s">
         <v>48</v>
       </c>
       <c r="C23" s="23">
         <v>0.41382000000000002</v>
       </c>
-      <c r="E23" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F23" s="31"/>
+      <c r="E23" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F23" s="32"/>
       <c r="G23" s="16" t="s">
         <v>38</v>
       </c>
@@ -2510,17 +2653,17 @@
       </c>
     </row>
     <row r="24" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A24" s="33"/>
+      <c r="A24" s="36"/>
       <c r="B24" s="23" t="s">
         <v>49</v>
       </c>
       <c r="C24" s="23">
         <v>0.42836999999999997</v>
       </c>
-      <c r="E24" s="31" t="s">
-        <v>38</v>
-      </c>
-      <c r="F24" s="31"/>
+      <c r="E24" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="F24" s="32"/>
       <c r="G24" s="16" t="s">
         <v>38</v>
       </c>
@@ -2554,7 +2697,7 @@
       </c>
     </row>
     <row r="25" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="35" t="s">
         <v>54</v>
       </c>
       <c r="B25" s="23" t="s">
@@ -2608,7 +2751,7 @@
       </c>
     </row>
     <row r="26" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="33"/>
+      <c r="A26" s="36"/>
       <c r="B26" s="23" t="s">
         <v>47</v>
       </c>
@@ -2660,7 +2803,7 @@
       </c>
     </row>
     <row r="27" spans="1:23" ht="22.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="33"/>
+      <c r="A27" s="36"/>
       <c r="B27" s="23" t="s">
         <v>48</v>
       </c>
@@ -2712,7 +2855,7 @@
       </c>
     </row>
     <row r="28" spans="1:23" ht="62.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="33"/>
+      <c r="A28" s="36"/>
       <c r="B28" s="23" t="s">
         <v>49</v>
       </c>
@@ -2764,7 +2907,7 @@
       </c>
     </row>
     <row r="29" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="35" t="s">
         <v>62</v>
       </c>
       <c r="B29" s="23" t="s">
@@ -2810,11 +2953,11 @@
       <c r="S29" s="19"/>
     </row>
     <row r="30" spans="1:23" ht="24.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="32"/>
+      <c r="A30" s="35"/>
       <c r="B30" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C30" s="36">
+      <c r="C30" s="29">
         <v>0.41660000000000003</v>
       </c>
       <c r="E30" s="22"/>
@@ -2858,7 +3001,7 @@
       <c r="W30" s="22"/>
     </row>
     <row r="31" spans="1:23" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="33"/>
+      <c r="A31" s="36"/>
       <c r="B31" s="23" t="s">
         <v>49</v>
       </c>
@@ -2902,7 +3045,7 @@
       <c r="S31" s="19"/>
     </row>
     <row r="32" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A32" s="27" t="s">
+      <c r="A32" s="31" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="23" t="s">
@@ -2943,7 +3086,7 @@
       </c>
     </row>
     <row r="33" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A33" s="31"/>
+      <c r="A33" s="32"/>
       <c r="B33" s="23" t="s">
         <v>48</v>
       </c>
@@ -2982,7 +3125,7 @@
       </c>
     </row>
     <row r="34" spans="1:23" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="31"/>
+      <c r="A34" s="32"/>
       <c r="B34" s="23" t="s">
         <v>49</v>
       </c>
@@ -3021,7 +3164,7 @@
       </c>
     </row>
     <row r="35" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A35" s="27" t="s">
+      <c r="A35" s="31" t="s">
         <v>64</v>
       </c>
       <c r="B35" s="23" t="s">
@@ -3060,7 +3203,7 @@
       </c>
     </row>
     <row r="36" spans="1:23" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="31"/>
+      <c r="A36" s="32"/>
       <c r="B36" s="23" t="s">
         <v>49</v>
       </c>
@@ -3097,13 +3240,13 @@
       </c>
     </row>
     <row r="37" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A37" s="27" t="s">
+      <c r="A37" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B37" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="36">
+      <c r="C37" s="29">
         <v>0.41660000000000003</v>
       </c>
       <c r="E37" s="22"/>
@@ -3147,7 +3290,7 @@
       <c r="W37" s="22"/>
     </row>
     <row r="38" spans="1:23" ht="63.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="31"/>
+      <c r="A38" s="32"/>
       <c r="B38" s="23" t="s">
         <v>49</v>
       </c>
@@ -3195,7 +3338,7 @@
       <c r="W38" s="22"/>
     </row>
     <row r="39" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B39" s="23" t="s">
@@ -3206,7 +3349,7 @@
       </c>
     </row>
     <row r="40" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="31"/>
+      <c r="A40" s="32"/>
       <c r="B40" s="23" t="s">
         <v>49</v>
       </c>
@@ -3215,13 +3358,13 @@
       </c>
     </row>
     <row r="41" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A41" s="27" t="s">
+      <c r="A41" s="31" t="s">
         <v>67</v>
       </c>
       <c r="B41" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C41" s="36">
+      <c r="C41" s="29">
         <v>0.4093</v>
       </c>
       <c r="E41" s="22"/>
@@ -3245,7 +3388,7 @@
       <c r="W41" s="22"/>
     </row>
     <row r="42" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A42" s="27"/>
+      <c r="A42" s="31"/>
       <c r="B42" s="23" t="s">
         <v>48</v>
       </c>
@@ -3273,7 +3416,7 @@
       <c r="W42" s="22"/>
     </row>
     <row r="43" spans="1:23" ht="106.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="31"/>
+      <c r="A43" s="32"/>
       <c r="B43" s="23" t="s">
         <v>49</v>
       </c>
@@ -3301,7 +3444,7 @@
       <c r="W43" s="22"/>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B44" s="23" t="s">
@@ -3313,7 +3456,7 @@
       <c r="E44" s="22"/>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A45" s="29"/>
+      <c r="A45" s="34"/>
       <c r="B45" s="23" t="s">
         <v>48</v>
       </c>
@@ -3323,7 +3466,7 @@
       <c r="E45" s="22"/>
     </row>
     <row r="46" spans="1:23" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="29"/>
+      <c r="A46" s="34"/>
       <c r="B46" s="23" t="s">
         <v>49</v>
       </c>
@@ -3333,7 +3476,7 @@
       <c r="E46" s="22"/>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A47" s="28" t="s">
+      <c r="A47" s="33" t="s">
         <v>69</v>
       </c>
       <c r="B47" s="23" t="s">
@@ -3344,7 +3487,7 @@
       </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A48" s="29"/>
+      <c r="A48" s="34"/>
       <c r="B48" s="23" t="s">
         <v>48</v>
       </c>
@@ -3353,7 +3496,7 @@
       </c>
     </row>
     <row r="49" spans="1:23" ht="84.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="29"/>
+      <c r="A49" s="34"/>
       <c r="B49" s="23" t="s">
         <v>49</v>
       </c>
@@ -3362,7 +3505,7 @@
       </c>
     </row>
     <row r="50" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="28" t="s">
+      <c r="A50" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B50" s="23" t="s">
@@ -3373,7 +3516,7 @@
       </c>
     </row>
     <row r="51" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="29"/>
+      <c r="A51" s="34"/>
       <c r="B51" s="23" t="s">
         <v>48</v>
       </c>
@@ -3382,7 +3525,7 @@
       </c>
     </row>
     <row r="52" spans="1:23" ht="45" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="29"/>
+      <c r="A52" s="34"/>
       <c r="B52" s="23" t="s">
         <v>49</v>
       </c>
@@ -3391,7 +3534,7 @@
       </c>
     </row>
     <row r="53" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="28" t="s">
+      <c r="A53" s="33" t="s">
         <v>70</v>
       </c>
       <c r="B53" s="23" t="s">
@@ -3402,7 +3545,7 @@
       </c>
     </row>
     <row r="54" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="29"/>
+      <c r="A54" s="34"/>
       <c r="B54" s="23" t="s">
         <v>48</v>
       </c>
@@ -3411,7 +3554,7 @@
       </c>
     </row>
     <row r="55" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="29"/>
+      <c r="A55" s="34"/>
       <c r="B55" s="23" t="s">
         <v>49</v>
       </c>
@@ -3420,7 +3563,7 @@
       </c>
     </row>
     <row r="56" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="28" t="s">
+      <c r="A56" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B56" s="23" t="s">
@@ -3431,7 +3574,7 @@
       </c>
     </row>
     <row r="57" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="28"/>
+      <c r="A57" s="33"/>
       <c r="B57" s="23" t="s">
         <v>47</v>
       </c>
@@ -3459,7 +3602,7 @@
       <c r="W57" s="25"/>
     </row>
     <row r="58" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="29"/>
+      <c r="A58" s="34"/>
       <c r="B58" s="23" t="s">
         <v>48</v>
       </c>
@@ -3468,7 +3611,7 @@
       </c>
     </row>
     <row r="59" spans="1:23" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="29"/>
+      <c r="A59" s="34"/>
       <c r="B59" s="23" t="s">
         <v>49</v>
       </c>
@@ -3477,7 +3620,7 @@
       </c>
     </row>
     <row r="60" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="28" t="s">
+      <c r="A60" s="33" t="s">
         <v>74</v>
       </c>
       <c r="B60" s="23" t="s">
@@ -3488,7 +3631,7 @@
       </c>
     </row>
     <row r="61" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A61" s="28"/>
+      <c r="A61" s="33"/>
       <c r="B61" s="23" t="s">
         <v>48</v>
       </c>
@@ -3497,7 +3640,7 @@
       </c>
     </row>
     <row r="62" spans="1:23" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="29"/>
+      <c r="A62" s="34"/>
       <c r="B62" s="23" t="s">
         <v>49</v>
       </c>
@@ -3506,7 +3649,7 @@
       </c>
     </row>
     <row r="63" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="28" t="s">
+      <c r="A63" s="33" t="s">
         <v>75</v>
       </c>
       <c r="B63" s="23" t="s">
@@ -3514,7 +3657,7 @@
       </c>
     </row>
     <row r="64" spans="1:23" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="28"/>
+      <c r="A64" s="33"/>
       <c r="B64" s="23" t="s">
         <v>48</v>
       </c>
@@ -3523,7 +3666,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="29"/>
+      <c r="A65" s="34"/>
       <c r="B65" s="23" t="s">
         <v>49</v>
       </c>
@@ -3535,7 +3678,7 @@
       <c r="A66" t="s">
         <v>77</v>
       </c>
-      <c r="B66" s="37" t="s">
+      <c r="B66" s="30" t="s">
         <v>76</v>
       </c>
       <c r="C66" s="23">
@@ -3543,7 +3686,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B67" s="37" t="s">
+      <c r="B67" s="30" t="s">
         <v>78</v>
       </c>
       <c r="C67" s="23">
@@ -3573,7 +3716,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="165" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="27" t="s">
+      <c r="A70" s="31" t="s">
         <v>81</v>
       </c>
       <c r="B70" s="23" t="s">
@@ -3584,7 +3727,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A71" s="27"/>
+      <c r="A71" s="31"/>
       <c r="B71" s="23" t="s">
         <v>48</v>
       </c>
@@ -3593,7 +3736,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="27"/>
+      <c r="A72" s="31"/>
       <c r="B72" s="23" t="s">
         <v>49</v>
       </c>
@@ -3602,10 +3745,10 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="27" t="s">
+      <c r="A73" s="31" t="s">
         <v>82</v>
       </c>
-      <c r="B73" s="37" t="s">
+      <c r="B73" s="30" t="s">
         <v>83</v>
       </c>
       <c r="C73" s="23">
@@ -3613,7 +3756,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="27"/>
+      <c r="A74" s="31"/>
       <c r="B74" s="23" t="s">
         <v>84</v>
       </c>
@@ -3622,7 +3765,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="27"/>
+      <c r="A75" s="31"/>
       <c r="B75" s="23" t="s">
         <v>85</v>
       </c>
@@ -3632,30 +3775,11 @@
     </row>
   </sheetData>
   <mergeCells count="45">
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="A41:A43"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="A70:A72"/>
-    <mergeCell ref="A50:A52"/>
-    <mergeCell ref="E17:F17"/>
-    <mergeCell ref="E19:F19"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E18:F18"/>
-    <mergeCell ref="A29:A31"/>
-    <mergeCell ref="A25:A28"/>
-    <mergeCell ref="A44:A46"/>
-    <mergeCell ref="A47:A49"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E12:F12"/>
-    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A73:A75"/>
+    <mergeCell ref="A53:A55"/>
+    <mergeCell ref="A56:A59"/>
+    <mergeCell ref="A60:A62"/>
+    <mergeCell ref="A63:A65"/>
     <mergeCell ref="R1:S1"/>
     <mergeCell ref="A8:A11"/>
     <mergeCell ref="A12:A15"/>
@@ -3672,11 +3796,286 @@
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="E8:F8"/>
-    <mergeCell ref="A73:A75"/>
-    <mergeCell ref="A53:A55"/>
-    <mergeCell ref="A56:A59"/>
-    <mergeCell ref="A60:A62"/>
-    <mergeCell ref="A63:A65"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E12:F12"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="A70:A72"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="E17:F17"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E18:F18"/>
+    <mergeCell ref="A29:A31"/>
+    <mergeCell ref="A25:A28"/>
+    <mergeCell ref="A44:A46"/>
+    <mergeCell ref="A47:A49"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="A41:A43"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8532435E-3C40-4107-9686-120D943ABABA}">
+  <dimension ref="B1:X16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9" style="39"/>
+    <col min="2" max="2" width="26" style="39" customWidth="1"/>
+    <col min="3" max="3" width="26" style="39" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.375" style="39" customWidth="1"/>
+    <col min="5" max="8" width="9" style="40"/>
+    <col min="9" max="16384" width="9" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:24" s="38" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:24" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="52" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:24" s="38" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="48">
+        <f>MIN(D4:D106)</f>
+        <v>0.40622999999999998</v>
+      </c>
+    </row>
+    <row r="4" spans="2:24" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="41" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0.86995</v>
+      </c>
+      <c r="I4" s="39"/>
+      <c r="J4" s="39"/>
+      <c r="K4" s="39"/>
+      <c r="L4" s="39"/>
+      <c r="M4" s="39"/>
+      <c r="N4" s="39"/>
+      <c r="O4" s="39"/>
+      <c r="P4" s="39"/>
+      <c r="Q4" s="39"/>
+      <c r="R4" s="39"/>
+      <c r="S4" s="39"/>
+      <c r="T4" s="39"/>
+      <c r="U4" s="39"/>
+      <c r="V4" s="39"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="39"/>
+    </row>
+    <row r="5" spans="2:24" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="41"/>
+      <c r="C5" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="42">
+        <v>0.58091000000000004</v>
+      </c>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39"/>
+      <c r="M5" s="39"/>
+      <c r="N5" s="39"/>
+      <c r="O5" s="39"/>
+      <c r="P5" s="39"/>
+      <c r="Q5" s="39"/>
+      <c r="R5" s="39"/>
+      <c r="S5" s="39"/>
+      <c r="T5" s="39"/>
+      <c r="U5" s="39"/>
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+    </row>
+    <row r="6" spans="2:24" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="41"/>
+      <c r="C6" s="42" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="42">
+        <v>0.61836999999999998</v>
+      </c>
+      <c r="I6" s="39"/>
+      <c r="J6" s="39"/>
+      <c r="K6" s="39"/>
+      <c r="L6" s="39"/>
+      <c r="M6" s="39"/>
+      <c r="N6" s="39"/>
+      <c r="O6" s="39"/>
+      <c r="P6" s="39"/>
+      <c r="Q6" s="39"/>
+      <c r="R6" s="39"/>
+      <c r="S6" s="39"/>
+      <c r="T6" s="39"/>
+      <c r="U6" s="39"/>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+    </row>
+    <row r="7" spans="2:24" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="41"/>
+      <c r="C7" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="42">
+        <v>0.68247999999999998</v>
+      </c>
+      <c r="I7" s="39"/>
+      <c r="J7" s="39"/>
+      <c r="K7" s="39"/>
+      <c r="L7" s="39"/>
+      <c r="M7" s="39"/>
+      <c r="N7" s="39"/>
+      <c r="O7" s="39"/>
+      <c r="P7" s="39"/>
+      <c r="Q7" s="39"/>
+      <c r="R7" s="39"/>
+      <c r="S7" s="39"/>
+      <c r="T7" s="39"/>
+      <c r="U7" s="39"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+    </row>
+    <row r="8" spans="2:24" s="40" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="39"/>
+      <c r="N8" s="39"/>
+      <c r="O8" s="39"/>
+      <c r="P8" s="39"/>
+      <c r="Q8" s="39"/>
+      <c r="R8" s="39"/>
+      <c r="S8" s="39"/>
+      <c r="T8" s="39"/>
+      <c r="U8" s="39"/>
+      <c r="V8" s="39"/>
+      <c r="W8" s="39"/>
+      <c r="X8" s="39"/>
+    </row>
+    <row r="9" spans="2:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>71</v>
+      </c>
+      <c r="D9" s="42">
+        <v>0.65561999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
+      <c r="C10" s="42" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="49">
+        <v>0.40622999999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="41"/>
+      <c r="C11" s="42" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="42">
+        <v>0.41332000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="2:24" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="41"/>
+      <c r="C12" s="42" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="42">
+        <v>0.42857000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:24" x14ac:dyDescent="0.3">
+      <c r="B13" s="45" t="s">
+        <v>86</v>
+      </c>
+      <c r="C13" s="46"/>
+      <c r="D13" s="47"/>
+    </row>
+    <row r="14" spans="2:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C14" s="44" t="s">
+        <v>83</v>
+      </c>
+      <c r="D14" s="42">
+        <v>0.41303000000000001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="43"/>
+      <c r="C15" s="42" t="s">
+        <v>84</v>
+      </c>
+      <c r="D15" s="42">
+        <v>0.43496000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:24" ht="67.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="43"/>
+      <c r="C16" s="42" t="s">
+        <v>85</v>
+      </c>
+      <c r="D16" s="42">
+        <v>0.42810999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="B14:B16"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="B4:B7"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
